--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>285.618800045114</v>
+        <v>288.0493104767438</v>
       </c>
       <c r="R2">
-        <v>285.618800045114</v>
+        <v>1152.197241906975</v>
       </c>
       <c r="S2">
-        <v>0.0181784012306121</v>
+        <v>0.01414807197157768</v>
       </c>
       <c r="T2">
-        <v>0.0181784012306121</v>
+        <v>0.00944596444399008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>193.2874671779176</v>
+        <v>207.8657805279</v>
       </c>
       <c r="R3">
-        <v>193.2874671779176</v>
+        <v>1247.1946831674</v>
       </c>
       <c r="S3">
-        <v>0.01230191125603064</v>
+        <v>0.01020971033907175</v>
       </c>
       <c r="T3">
-        <v>0.01230191125603064</v>
+        <v>0.01022477419962779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>145.8215423672525</v>
+        <v>147.9510010897875</v>
       </c>
       <c r="R4">
-        <v>145.8215423672525</v>
+        <v>887.706006538725</v>
       </c>
       <c r="S4">
-        <v>0.009280910447071127</v>
+        <v>0.007266885687804074</v>
       </c>
       <c r="T4">
-        <v>0.009280910447071127</v>
+        <v>0.007277607574032209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>137.1086015021526</v>
+        <v>139.3813913958125</v>
       </c>
       <c r="R5">
-        <v>137.1086015021526</v>
+        <v>836.288348374875</v>
       </c>
       <c r="S5">
-        <v>0.008726369447251206</v>
+        <v>0.006845973537318377</v>
       </c>
       <c r="T5">
-        <v>0.008726369447251206</v>
+        <v>0.006856074391046013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>201.4504582685511</v>
+        <v>213.06215865495</v>
       </c>
       <c r="R6">
-        <v>201.4504582685511</v>
+        <v>1278.3729519297</v>
       </c>
       <c r="S6">
-        <v>0.01282145033141367</v>
+        <v>0.01046494001350269</v>
       </c>
       <c r="T6">
-        <v>0.01282145033141367</v>
+        <v>0.01048038045126784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>242.2163063673132</v>
+        <v>244.8726910878187</v>
       </c>
       <c r="R7">
-        <v>242.2163063673132</v>
+        <v>979.4907643512749</v>
       </c>
       <c r="S7">
-        <v>0.01541602023762583</v>
+        <v>0.01202737285380199</v>
       </c>
       <c r="T7">
-        <v>0.01541602023762583</v>
+        <v>0.008030079049630124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>454.0215913206931</v>
+        <v>526.369459167396</v>
       </c>
       <c r="R8">
-        <v>454.0215913206931</v>
+        <v>3158.216755004376</v>
       </c>
       <c r="S8">
-        <v>0.02889651049960617</v>
+        <v>0.02585360464711821</v>
       </c>
       <c r="T8">
-        <v>0.02889651049960617</v>
+        <v>0.02589175020486089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>307.2510752674652</v>
+        <v>379.845375414336</v>
       </c>
       <c r="R9">
-        <v>307.2510752674652</v>
+        <v>3418.608378729024</v>
       </c>
       <c r="S9">
-        <v>0.01955520198203608</v>
+        <v>0.01865680463021575</v>
       </c>
       <c r="T9">
-        <v>0.01955520198203608</v>
+        <v>0.02802649756386772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>231.7989176621444</v>
+        <v>270.359572456584</v>
       </c>
       <c r="R10">
-        <v>231.7989176621444</v>
+        <v>2433.236152109256</v>
       </c>
       <c r="S10">
-        <v>0.01475299850506518</v>
+        <v>0.01327920793488428</v>
       </c>
       <c r="T10">
-        <v>0.01475299850506518</v>
+        <v>0.01994820100299369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>217.9487674758439</v>
+        <v>254.69982026892</v>
       </c>
       <c r="R11">
-        <v>217.9487674758439</v>
+        <v>2292.29838242028</v>
       </c>
       <c r="S11">
-        <v>0.01387149635201699</v>
+        <v>0.01251005038806894</v>
       </c>
       <c r="T11">
-        <v>0.01387149635201699</v>
+        <v>0.01879276240890893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>320.2270215438331</v>
+        <v>389.3410230166079</v>
       </c>
       <c r="R12">
-        <v>320.2270215438331</v>
+        <v>3504.069207149472</v>
       </c>
       <c r="S12">
-        <v>0.02038106483742734</v>
+        <v>0.01912320083672405</v>
       </c>
       <c r="T12">
-        <v>0.02038106483742734</v>
+        <v>0.02872712408617862</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>385.0286915403954</v>
+        <v>447.470281249524</v>
       </c>
       <c r="R13">
-        <v>385.0286915403954</v>
+        <v>2684.821687497144</v>
       </c>
       <c r="S13">
-        <v>0.02450541084485108</v>
+        <v>0.02197832632816354</v>
       </c>
       <c r="T13">
-        <v>0.02450541084485108</v>
+        <v>0.02201075412798031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>410.0499344325693</v>
+        <v>422.0781046106198</v>
       </c>
       <c r="R14">
-        <v>410.0499344325693</v>
+        <v>2532.468627663719</v>
       </c>
       <c r="S14">
-        <v>0.02609790473009496</v>
+        <v>0.02073114284417032</v>
       </c>
       <c r="T14">
-        <v>0.02609790473009496</v>
+        <v>0.02076173049402526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>277.4940348129173</v>
+        <v>304.5853312872507</v>
       </c>
       <c r="R15">
-        <v>277.4940348129173</v>
+        <v>2741.267981585256</v>
       </c>
       <c r="S15">
-        <v>0.01766129506577956</v>
+        <v>0.01496026906437179</v>
       </c>
       <c r="T15">
-        <v>0.01766129506577956</v>
+        <v>0.0224735131657201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>209.3493631270191</v>
+        <v>216.792319384021</v>
       </c>
       <c r="R16">
-        <v>209.3493631270191</v>
+        <v>1951.130874456189</v>
       </c>
       <c r="S16">
-        <v>0.0133241814603764</v>
+        <v>0.01064815372220105</v>
       </c>
       <c r="T16">
-        <v>0.0133241814603764</v>
+        <v>0.0159957967224265</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>196.8405897903733</v>
+        <v>204.2352866631328</v>
       </c>
       <c r="R17">
-        <v>196.8405897903733</v>
+        <v>1838.117579968195</v>
       </c>
       <c r="S17">
-        <v>0.01252805214192673</v>
+        <v>0.01003139195182727</v>
       </c>
       <c r="T17">
-        <v>0.01252805214192673</v>
+        <v>0.01506928907026015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>289.2132702447558</v>
+        <v>312.1995742343186</v>
       </c>
       <c r="R18">
-        <v>289.2132702447558</v>
+        <v>2809.796168108868</v>
       </c>
       <c r="S18">
-        <v>0.0184071737115911</v>
+        <v>0.01533425661895367</v>
       </c>
       <c r="T18">
-        <v>0.0184071737115911</v>
+        <v>0.02303532219439109</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>347.7389462063702</v>
+        <v>358.8114866659018</v>
       </c>
       <c r="R19">
-        <v>347.7389462063702</v>
+        <v>2152.868919995411</v>
       </c>
       <c r="S19">
-        <v>0.02213207984436307</v>
+        <v>0.01762368647637442</v>
       </c>
       <c r="T19">
-        <v>0.02213207984436307</v>
+        <v>0.0176496892469474</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>404.1369252485177</v>
+        <v>433.8676522419775</v>
       </c>
       <c r="R20">
-        <v>404.1369252485177</v>
+        <v>2603.205913451865</v>
       </c>
       <c r="S20">
-        <v>0.02572156727117767</v>
+        <v>0.02131020817199467</v>
       </c>
       <c r="T20">
-        <v>0.02572156727117767</v>
+        <v>0.02134165020057941</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>273.4925105140807</v>
+        <v>313.09305351164</v>
       </c>
       <c r="R21">
-        <v>273.4925105140807</v>
+        <v>2817.83748160476</v>
       </c>
       <c r="S21">
-        <v>0.0174066153520254</v>
+        <v>0.01537814149789934</v>
       </c>
       <c r="T21">
-        <v>0.0174066153520254</v>
+        <v>0.02310124663736187</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>206.3304998059984</v>
+        <v>222.847794301035</v>
       </c>
       <c r="R22">
-        <v>206.3304998059984</v>
+        <v>2005.630148709315</v>
       </c>
       <c r="S22">
-        <v>0.01313204386753859</v>
+        <v>0.01094557951643816</v>
       </c>
       <c r="T22">
-        <v>0.01313204386753859</v>
+        <v>0.01644259366664263</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>194.002105699807</v>
+        <v>209.9400166972583</v>
       </c>
       <c r="R23">
-        <v>194.002105699807</v>
+        <v>1889.460150275325</v>
       </c>
       <c r="S23">
-        <v>0.01234739490690973</v>
+        <v>0.01031159026567724</v>
       </c>
       <c r="T23">
-        <v>0.01234739490690973</v>
+        <v>0.01549020666660983</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>285.0427520236682</v>
+        <v>320.91997861142</v>
       </c>
       <c r="R24">
-        <v>285.0427520236682</v>
+        <v>2888.27980750278</v>
       </c>
       <c r="S24">
-        <v>0.0181417382656382</v>
+        <v>0.01576257532780353</v>
       </c>
       <c r="T24">
-        <v>0.0181417382656382</v>
+        <v>0.02367874819836489</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>342.724475016621</v>
+        <v>368.8338618294475</v>
       </c>
       <c r="R25">
-        <v>342.724475016621</v>
+        <v>2213.003170976685</v>
       </c>
       <c r="S25">
-        <v>0.02181293044232018</v>
+        <v>0.01811595387637379</v>
       </c>
       <c r="T25">
-        <v>0.02181293044232018</v>
+        <v>0.01814268296015484</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>148.4729711667891</v>
+        <v>179.8429643797685</v>
       </c>
       <c r="R26">
-        <v>148.4729711667891</v>
+        <v>1079.057786278611</v>
       </c>
       <c r="S26">
-        <v>0.009449662421887779</v>
+        <v>0.008833318154504924</v>
       </c>
       <c r="T26">
-        <v>0.009449662421887779</v>
+        <v>0.008846351224837717</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>100.4764551096628</v>
+        <v>129.780550772296</v>
       </c>
       <c r="R27">
-        <v>100.4764551096628</v>
+        <v>1168.024956950664</v>
       </c>
       <c r="S27">
-        <v>0.006394891775067106</v>
+        <v>0.006374410581988461</v>
       </c>
       <c r="T27">
-        <v>0.006394891775067106</v>
+        <v>0.009575723506149304</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>75.80228490551063</v>
+        <v>92.372887735449</v>
       </c>
       <c r="R28">
-        <v>75.80228490551063</v>
+        <v>831.355989619041</v>
       </c>
       <c r="S28">
-        <v>0.004824487565215915</v>
+        <v>0.004537064371862514</v>
       </c>
       <c r="T28">
-        <v>0.004824487565215915</v>
+        <v>0.006815637837530662</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>71.27304447162605</v>
+        <v>87.02247044616166</v>
       </c>
       <c r="R29">
-        <v>71.27304447162605</v>
+        <v>783.2022340154549</v>
       </c>
       <c r="S29">
-        <v>0.004536221002006278</v>
+        <v>0.004274268780505171</v>
       </c>
       <c r="T29">
-        <v>0.004536221002006278</v>
+        <v>0.006420862840045653</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>104.7198156330001</v>
+        <v>133.024898223988</v>
       </c>
       <c r="R30">
-        <v>104.7198156330001</v>
+        <v>1197.224084015892</v>
       </c>
       <c r="S30">
-        <v>0.00666496331849205</v>
+        <v>0.006533762677542423</v>
       </c>
       <c r="T30">
-        <v>0.00666496331849205</v>
+        <v>0.009815104322230064</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>125.9110908165705</v>
+        <v>152.8857353902265</v>
       </c>
       <c r="R31">
-        <v>125.9110908165705</v>
+        <v>917.3144123413589</v>
       </c>
       <c r="S31">
-        <v>0.008013696324913232</v>
+        <v>0.00750926424419663</v>
       </c>
       <c r="T31">
-        <v>0.008013696324913232</v>
+        <v>0.007520343746522971</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H32">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I32">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J32">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>2020.326896792114</v>
+        <v>2874.781862037911</v>
       </c>
       <c r="R32">
-        <v>2020.326896792114</v>
+        <v>11499.12744815164</v>
       </c>
       <c r="S32">
-        <v>0.1285850684236594</v>
+        <v>0.1412002015189071</v>
       </c>
       <c r="T32">
-        <v>0.1285850684236594</v>
+        <v>0.09427235638264141</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H33">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I33">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J33">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>1367.220465496981</v>
+        <v>2074.53638618658</v>
       </c>
       <c r="R33">
-        <v>1367.220465496981</v>
+        <v>12447.21831711948</v>
       </c>
       <c r="S33">
-        <v>0.0870176689650074</v>
+        <v>0.1018946723074836</v>
       </c>
       <c r="T33">
-        <v>0.0870176689650074</v>
+        <v>0.1020450122372237</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H34">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I34">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J34">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>1031.469861681855</v>
+        <v>1476.576540660083</v>
       </c>
       <c r="R34">
-        <v>1031.469861681855</v>
+        <v>8859.459243960495</v>
       </c>
       <c r="S34">
-        <v>0.06564859526044872</v>
+        <v>0.07252477408894439</v>
       </c>
       <c r="T34">
-        <v>0.06564859526044872</v>
+        <v>0.07263178036507283</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H35">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I35">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J35">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>969.8388038623411</v>
+        <v>1391.050356021037</v>
       </c>
       <c r="R35">
-        <v>969.8388038623411</v>
+        <v>8346.302136126225</v>
       </c>
       <c r="S35">
-        <v>0.06172604500418683</v>
+        <v>0.06832399813942049</v>
       </c>
       <c r="T35">
-        <v>0.06172604500418683</v>
+        <v>0.0684248064039473</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H36">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I36">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J36">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>1424.961449129979</v>
+        <v>2126.39713726149</v>
       </c>
       <c r="R36">
-        <v>1424.961449129979</v>
+        <v>12758.38282356894</v>
       </c>
       <c r="S36">
-        <v>0.09069263282510709</v>
+        <v>0.1044419085341335</v>
       </c>
       <c r="T36">
-        <v>0.09069263282510709</v>
+        <v>0.1045960067694521</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H37">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I37">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J37">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>1713.319006025609</v>
+        <v>2443.871744329376</v>
       </c>
       <c r="R37">
-        <v>1713.319006025609</v>
+        <v>9775.486977317505</v>
       </c>
       <c r="S37">
-        <v>0.1090453440832591</v>
+        <v>0.1200352580981744</v>
       </c>
       <c r="T37">
-        <v>0.1090453440832591</v>
+        <v>0.08014157563647806</v>
       </c>
     </row>
   </sheetData>
